--- a/자바오류메시지.xlsx
+++ b/자바오류메시지.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57881A64-650F-4984-A68C-916BA7D272B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95203412-993F-489E-971C-2F649F37D7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7620" yWindow="3015" windowWidth="18870" windowHeight="11025" activeTab="1" xr2:uid="{948BCD8C-4436-4CF8-A67B-BF2D5D1CB442}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="error log" sheetId="1" r:id="rId1"/>
+    <sheet name="용어 및 개념" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>The import java.util.Iterator conflicts with a type defined in the same file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>Iterator</t>
+  </si>
+  <si>
+    <t>컬렉션클래스 정리 및 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬렉션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 두가지가 가장 많은 조건에 사용되고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -549,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA11AC-DC39-4D14-AE9F-99B0F2CE452B}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,24 +664,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
